--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
@@ -455,9 +455,6 @@
     <t xml:space="preserve">Resuelve problemas sobre movimiento circular </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Clasifica movimientos circulares</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conoce el modelo de Ptolomeo sobre el universo </t>
   </si>
   <si>
@@ -467,15 +464,9 @@
     <t>Investiga sobre las leyes de Kepler</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad que introduce el estudio de las componentes rectangulares de un vector </t>
-  </si>
-  <si>
     <t>Actividad que permite ejercitar lo aprendido sobre componentes de un vector</t>
   </si>
   <si>
-    <t xml:space="preserve"> Actividad para determinar las componentes de un vector en una gráfica dada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Interactivo que permite estudiar el movimiento parabólico y semiparabólico </t>
   </si>
   <si>
@@ -488,9 +479,6 @@
     <t>Actividad que permite aplicar la teoría de movimiento parabólico para determinar la altura de una pared</t>
   </si>
   <si>
-    <t>Video que permite analizar las principales características de un movimiento circular</t>
-  </si>
-  <si>
     <t>Actividad que permite identificar las magnitudes físicas presentes en el movimiento circular</t>
   </si>
   <si>
@@ -509,9 +497,6 @@
     <t xml:space="preserve">Actividad, con animación incluida, que muestra el modelo geocéntrico del universo </t>
   </si>
   <si>
-    <t>Actividad que plantea diversas cuestiones sobre el modelo copernicano del universo</t>
-  </si>
-  <si>
     <t>Webquest que permite ampliar tu conocimiento sobre las leyes de Kepler</t>
   </si>
   <si>
@@ -671,9 +656,6 @@
     <t>Analiza el movimiento en dos dimensiones</t>
   </si>
   <si>
-    <t>Revisa qué sabes sobre el tema Movimiento en dos dimensiones</t>
-  </si>
-  <si>
     <t>CN_10_03_CO</t>
   </si>
   <si>
@@ -692,13 +674,31 @@
     <t>Recurso M102AB-02</t>
   </si>
   <si>
-    <t>Practica con las componentes de un vector</t>
-  </si>
-  <si>
     <t>Aplicación del movimiento parabólico</t>
   </si>
   <si>
     <t>Comprende el movimiento circular</t>
+  </si>
+  <si>
+    <t>Los componentes de un vector</t>
+  </si>
+  <si>
+    <t>Actividad para estudiar las componentes rectangulares de un vector</t>
+  </si>
+  <si>
+    <t>Identifica las componentes de un vector</t>
+  </si>
+  <si>
+    <t>Animación que permite analizar las principales características de un movimiento circular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite comprender el movimiento en dos direcciones </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El movimientos circulares</t>
+  </si>
+  <si>
+    <t>Actividad que plantea diversas preguntas sobre el modelo copernicano del universo</t>
   </si>
 </sst>
 </file>
@@ -1095,34 +1095,39 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,28 +1169,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1535,9 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,101 +1565,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="97"/>
+      <c r="O1" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="70" t="s">
+      <c r="P1" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="100" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="85"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="73"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>125</v>
@@ -1670,7 +1670,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
       <c r="G3" s="33" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="H3" s="39">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1699,16 +1699,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1716,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>125</v>
@@ -1727,7 +1727,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
       <c r="G4" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H4" s="39">
         <v>2</v>
@@ -1736,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1756,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1773,7 +1773,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>125</v>
@@ -1786,16 +1786,16 @@
       </c>
       <c r="F5" s="51"/>
       <c r="G5" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="105">
+        <v>199</v>
+      </c>
+      <c r="H5" s="82">
         <v>3</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" s="55" t="s">
         <v>20</v>
@@ -1815,16 +1815,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="U5" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>125</v>
@@ -1852,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>19</v>
@@ -1863,25 +1863,25 @@
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T6" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>125</v>
@@ -1909,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1920,25 +1920,25 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="38" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>181</v>
-      </c>
       <c r="U7" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>125</v>
@@ -1957,7 +1957,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="36"/>
       <c r="G8" s="37" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H8" s="39">
         <v>6</v>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1986,16 +1986,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>125</v>
@@ -2016,16 +2016,16 @@
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="105">
+        <v>200</v>
+      </c>
+      <c r="H9" s="82">
         <v>7</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K9" s="55" t="s">
         <v>20</v>
@@ -2045,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="R9" s="61" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S9" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U9" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2062,7 +2062,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>125</v>
@@ -2082,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2102,16 +2102,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2119,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>125</v>
@@ -2139,7 +2139,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2159,16 +2159,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>125</v>
@@ -2198,7 +2198,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2209,25 +2209,25 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="38" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>125</v>
@@ -2257,7 +2257,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2268,25 +2268,25 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="38" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>125</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="37" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H14" s="39">
         <v>12</v>
@@ -2316,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2336,16 +2336,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>125</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="44" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H15" s="39">
         <v>13</v>
@@ -2375,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>20</v>
@@ -2395,16 +2395,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S15" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2412,7 +2412,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>125</v>
@@ -2425,16 +2425,16 @@
       </c>
       <c r="F16" s="51"/>
       <c r="G16" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="105">
+        <v>223</v>
+      </c>
+      <c r="H16" s="82">
         <v>14</v>
       </c>
       <c r="I16" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K16" s="55" t="s">
         <v>19</v>
@@ -2449,19 +2449,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T16" s="62" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="U16" s="60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>125</v>
@@ -2484,7 +2484,7 @@
         <v>135</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="39">
         <v>15</v>
@@ -2493,7 +2493,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -2504,25 +2504,25 @@
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>125</v>
@@ -2545,7 +2545,7 @@
         <v>136</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H18" s="39">
         <v>16</v>
@@ -2554,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>19</v>
@@ -2569,19 +2569,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S18" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T18" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U18" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2589,56 +2589,56 @@
         <v>17</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="94" t="s">
+      <c r="E19" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="105">
+      <c r="F19" s="72"/>
+      <c r="G19" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="82">
         <v>17</v>
       </c>
-      <c r="I19" s="97" t="s">
+      <c r="I19" s="74" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="101"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
       <c r="P19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="102">
+      <c r="Q19" s="79">
         <v>6</v>
       </c>
-      <c r="R19" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="S19" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="T19" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="U19" s="102" t="s">
-        <v>201</v>
+      <c r="R19" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="T19" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" s="79" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2646,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>125</v>
@@ -2657,7 +2657,7 @@
       <c r="E20" s="42"/>
       <c r="F20" s="43"/>
       <c r="G20" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="39">
         <v>18</v>
@@ -2666,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>19</v>
@@ -2681,19 +2681,19 @@
         <v>19</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T20" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>125</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="37" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H21" s="39">
         <v>19</v>
@@ -2723,7 +2723,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2738,19 +2738,19 @@
         <v>19</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>125</v>
@@ -2771,16 +2771,16 @@
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H22" s="105">
+        <v>190</v>
+      </c>
+      <c r="H22" s="82">
         <v>20</v>
       </c>
       <c r="I22" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K22" s="55" t="s">
         <v>19</v>
@@ -2791,25 +2791,25 @@
       <c r="M22" s="57"/>
       <c r="N22" s="57"/>
       <c r="O22" s="66" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P22" s="67" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S22" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="T22" s="62" t="s">
-        <v>195</v>
-      </c>
       <c r="U22" s="60" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>125</v>
@@ -2828,7 +2828,7 @@
       <c r="E23" s="68"/>
       <c r="F23" s="25"/>
       <c r="G23" s="44" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H23" s="39">
         <v>21</v>
@@ -2837,7 +2837,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>20</v>
@@ -2857,16 +2857,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,7 +2874,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>125</v>
@@ -2885,16 +2885,16 @@
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
       <c r="G24" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24" s="105">
+        <v>208</v>
+      </c>
+      <c r="H24" s="82">
         <v>22</v>
       </c>
       <c r="I24" s="53" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="54" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K24" s="55" t="s">
         <v>20</v>
@@ -2914,16 +2914,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S24" s="60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T24" s="62" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="U24" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>125</v>
@@ -2942,7 +2942,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="25"/>
       <c r="G25" s="44" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H25" s="39">
         <v>23</v>
@@ -2951,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>20</v>
@@ -2976,7 +2976,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>125</v>
@@ -2987,7 +2987,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H26" s="39">
         <v>24</v>
@@ -2996,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3016,16 +3016,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>125</v>
@@ -3044,7 +3044,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H27" s="39">
         <v>25</v>
@@ -3053,7 +3053,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3073,16 +3073,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4345,6 +4345,12 @@
     <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4359,18 +4365,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_03_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$27</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -473,12 +474,6 @@
     <t>Actividad para practicar la resolución de problemas sobre movimiento parabólico</t>
   </si>
   <si>
-    <t>Actividad que permite conocer el ángulo de lanzamiento óptimo para lograr el máximo alcance horizontal</t>
-  </si>
-  <si>
-    <t>Actividad que permite aplicar la teoría de movimiento parabólico para determinar la altura de una pared</t>
-  </si>
-  <si>
     <t>Actividad que permite identificar las magnitudes físicas presentes en el movimiento circular</t>
   </si>
   <si>
@@ -494,12 +489,6 @@
     <t>Actividad que permite solucionar problemas del movimiento circular a partir de análisis cualitativos</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad, con animación incluida, que muestra el modelo geocéntrico del universo </t>
-  </si>
-  <si>
-    <t>Webquest que permite ampliar tu conocimiento sobre las leyes de Kepler</t>
-  </si>
-  <si>
     <t>Las simulaciones se presentan sin cambios. En la ficha del estudiante cambian algunos aspectos</t>
   </si>
   <si>
@@ -626,9 +615,6 @@
     <t xml:space="preserve">Refuerza tu aprendizaje: Identifica correctamente las componentes de un vector </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Ángulo óptimo en un lanzamiento de tiro parabólico</t>
-  </si>
-  <si>
     <t>Actividad que propone realizar un experimento para analizar el movimiento de un objeto en dos dimensiones</t>
   </si>
   <si>
@@ -647,12 +633,6 @@
     <t>Banco de actividades: Movimiento en dos dimensiones</t>
   </si>
   <si>
-    <t>Competencias: identifica en un experimento las características del movimiento en dos dimensiones</t>
-  </si>
-  <si>
-    <t>Competencias: identifica vectores en los distintos movimientos en dos dimensiones</t>
-  </si>
-  <si>
     <t>Analiza el movimiento en dos dimensiones</t>
   </si>
   <si>
@@ -674,24 +654,12 @@
     <t>Recurso M102AB-02</t>
   </si>
   <si>
-    <t>Aplicación del movimiento parabólico</t>
-  </si>
-  <si>
     <t>Comprende el movimiento circular</t>
   </si>
   <si>
-    <t>Los componentes de un vector</t>
-  </si>
-  <si>
-    <t>Actividad para estudiar las componentes rectangulares de un vector</t>
-  </si>
-  <si>
     <t>Identifica las componentes de un vector</t>
   </si>
   <si>
-    <t>Animación que permite analizar las principales características de un movimiento circular</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad que permite comprender el movimiento en dos direcciones </t>
   </si>
   <si>
@@ -699,13 +667,46 @@
   </si>
   <si>
     <t>Actividad que plantea diversas preguntas sobre el modelo copernicano del universo</t>
+  </si>
+  <si>
+    <t>El vector y sus componentes</t>
+  </si>
+  <si>
+    <t>Actividad para estudiar los vecrores y sus componentes rectangulares</t>
+  </si>
+  <si>
+    <t>Comprende el movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Actividad que completar un texto sobre el movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Actividad sobre el movimiento parabólico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad, con animación, que muestra el modelo geocéntrico del universo </t>
+  </si>
+  <si>
+    <t>Interactivo que permite ampliar tu conocimiento sobre las leyes de Kepler</t>
+  </si>
+  <si>
+    <t>Interactivo que describe las características del movimiento circular</t>
+  </si>
+  <si>
+    <t>Competencias: estudio del movimiento semiparabólico</t>
+  </si>
+  <si>
+    <t>Competencias: utilización de los vectores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,6 +764,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -970,7 +986,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1034,9 +1050,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1118,6 +1131,20 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1187,6 +1214,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1322,6 +1350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1357,6 +1402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1535,9 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,101 +1627,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="85" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="85" t="s">
+      <c r="P1" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="100" t="s">
+      <c r="Q1" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="102" t="s">
+      <c r="T1" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="100" t="s">
+      <c r="U1" s="105" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="92"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="106"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>125</v>
@@ -1669,17 +1731,17 @@
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="39">
+      <c r="G3" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="38">
         <v>1</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>219</v>
+      <c r="J3" s="84" t="s">
+        <v>215</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1691,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="N3" s="24"/>
-      <c r="O3" s="41"/>
+      <c r="O3" s="40"/>
       <c r="P3" s="25" t="s">
         <v>19</v>
       </c>
@@ -1699,16 +1761,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S3" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U3" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1716,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>125</v>
@@ -1724,18 +1786,18 @@
       <c r="D4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="39">
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="38">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1756,75 +1818,75 @@
         <v>6</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="82">
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="81">
         <v>3</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="59">
         <v>6</v>
       </c>
-      <c r="R5" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="U5" s="60" t="s">
-        <v>196</v>
+      <c r="R5" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="T5" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1832,7 +1894,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>125</v>
@@ -1840,18 +1902,18 @@
       <c r="D6" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>4</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>147</v>
       </c>
       <c r="K6" s="23" t="s">
@@ -1862,26 +1924,26 @@
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="45" t="s">
-        <v>158</v>
+      <c r="O6" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="U6" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="S6" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1889,26 +1951,26 @@
         <v>17</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1919,26 +1981,26 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="38" t="s">
-        <v>159</v>
+      <c r="O7" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="P7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1946,27 +2008,27 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="40" t="s">
-        <v>150</v>
+      <c r="J8" s="83" t="s">
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1978,7 +2040,7 @@
       <c r="N8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="38"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
@@ -1986,75 +2048,75 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="82">
+      <c r="F9" s="50"/>
+      <c r="G9" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="81">
         <v>7</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="55" t="s">
+      <c r="J9" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="56"/>
+      <c r="N9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="59" t="s">
+      <c r="O9" s="65"/>
+      <c r="P9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="60">
+      <c r="Q9" s="59">
         <v>6</v>
       </c>
-      <c r="R9" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="T9" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="U9" s="60" t="s">
-        <v>196</v>
+      <c r="R9" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="S9" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="T9" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2062,27 +2124,27 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>221</v>
+      <c r="J10" s="83" t="s">
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2094,7 +2156,7 @@
         <v>55</v>
       </c>
       <c r="N10" s="8"/>
-      <c r="O10" s="38"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="25" t="s">
         <v>19</v>
       </c>
@@ -2102,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2119,27 +2181,27 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="40" t="s">
-        <v>151</v>
+      <c r="J11" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
@@ -2151,7 +2213,7 @@
       <c r="N11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="38"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="25" t="s">
         <v>19</v>
       </c>
@@ -2159,16 +2221,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2176,29 +2238,29 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="38">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>152</v>
+      <c r="J12" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2208,26 +2270,26 @@
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="38" t="s">
-        <v>160</v>
+      <c r="O12" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2235,29 +2297,29 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="38">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="40" t="s">
-        <v>153</v>
+      <c r="J13" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2267,56 +2329,56 @@
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="38" t="s">
-        <v>161</v>
+      <c r="O13" s="37" t="s">
+        <v>157</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" s="68" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="G14" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="38">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="40" t="s">
-        <v>222</v>
+      <c r="J14" s="39" t="s">
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
@@ -2336,16 +2398,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2353,29 +2415,29 @@
         <v>17</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="39">
+      <c r="F15" s="42"/>
+      <c r="G15" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="38">
         <v>13</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>155</v>
+      <c r="J15" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>20</v>
@@ -2387,7 +2449,7 @@
       <c r="N15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="45"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="25" t="s">
         <v>19</v>
       </c>
@@ -2395,73 +2457,73 @@
         <v>6</v>
       </c>
       <c r="R15" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="81">
+        <v>14</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="R16" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="T15" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="U15" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="82">
-        <v>14</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="60" t="s">
+      <c r="S16" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="T16" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="59" t="s">
         <v>171</v>
-      </c>
-      <c r="R16" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="T16" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="U16" s="60" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2469,31 +2531,31 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="38">
         <v>15</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="40" t="s">
-        <v>156</v>
+      <c r="J17" s="39" t="s">
+        <v>220</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -2503,26 +2565,26 @@
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
-      <c r="O17" s="45" t="s">
-        <v>162</v>
+      <c r="O17" s="44" t="s">
+        <v>158</v>
       </c>
       <c r="P17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U17" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2530,31 +2592,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="38">
         <v>16</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="40" t="s">
-        <v>224</v>
+      <c r="J18" s="39" t="s">
+        <v>213</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>19</v>
@@ -2564,81 +2626,81 @@
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
-      <c r="O18" s="45"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S18" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>144</v>
       </c>
       <c r="U18" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="82">
+      <c r="F19" s="71"/>
+      <c r="G19" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="81">
         <v>17</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="K19" s="75" t="s">
+      <c r="J19" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L19" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="59" t="s">
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="79">
+      <c r="Q19" s="78">
         <v>6</v>
       </c>
-      <c r="R19" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="S19" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="T19" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="U19" s="79" t="s">
-        <v>196</v>
+      <c r="R19" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="S19" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="T19" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" s="78" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2646,27 +2708,27 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>18</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="40" t="s">
-        <v>157</v>
+      <c r="J20" s="83" t="s">
+        <v>221</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>19</v>
@@ -2676,24 +2738,24 @@
       </c>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
-      <c r="O20" s="45"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T20" s="28" t="s">
         <v>145</v>
       </c>
       <c r="U20" s="26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,29 +2763,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="39">
+      <c r="F21" s="35"/>
+      <c r="G21" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="38">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="40" t="s">
-        <v>189</v>
+      <c r="J21" s="39" t="s">
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2733,83 +2795,83 @@
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="36"/>
+      <c r="O21" s="35"/>
       <c r="P21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="81">
+        <v>20</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="82">
-        <v>20</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="K22" s="55" t="s">
+      <c r="P22" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="P22" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="R22" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="T22" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="U22" s="60" t="s">
-        <v>187</v>
+      <c r="Q22" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="R22" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="U22" s="59" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2817,27 +2879,27 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="39">
+      <c r="G23" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="38">
         <v>21</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>201</v>
+      <c r="J23" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>20</v>
@@ -2849,7 +2911,7 @@
       <c r="N23" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="41"/>
+      <c r="O23" s="40"/>
       <c r="P23" s="25" t="s">
         <v>19</v>
       </c>
@@ -2857,73 +2919,73 @@
         <v>6</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="U23" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="62" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52" t="s">
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="81">
+        <v>22</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="65"/>
+      <c r="P24" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="59">
+        <v>6</v>
+      </c>
+      <c r="R24" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="S24" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="T24" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="82">
-        <v>22</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="66"/>
-      <c r="P24" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="60">
-        <v>6</v>
-      </c>
-      <c r="R24" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="T24" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="U24" s="60" t="s">
-        <v>196</v>
+      <c r="U24" s="59" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2931,27 +2993,27 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="G25" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="38">
         <v>23</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>198</v>
+      <c r="J25" s="39" t="s">
+        <v>194</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>20</v>
@@ -2976,27 +3038,27 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="39">
+      <c r="G26" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="38">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="40" t="s">
-        <v>203</v>
+      <c r="J26" s="39" t="s">
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -3016,16 +3078,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3033,27 +3095,27 @@
         <v>17</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>123</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="39">
+      <c r="G27" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="38">
         <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="40" t="s">
-        <v>205</v>
+      <c r="J27" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>20</v>
@@ -3073,16 +3135,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">

--- a/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EscaletaCN_10_03_CO.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -675,12 +674,6 @@
     <t>Actividad para estudiar los vecrores y sus componentes rectangulares</t>
   </si>
   <si>
-    <t>Comprende el movimiento parabólico</t>
-  </si>
-  <si>
-    <t>Actividad que completar un texto sobre el movimiento parabólico</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El movimiento parabólico</t>
   </si>
   <si>
@@ -700,6 +693,12 @@
   </si>
   <si>
     <t>Competencias: utilización de los vectores</t>
+  </si>
+  <si>
+    <t>Actividad para completar un texto sobre el movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Resume las características del movimiento parabólico</t>
   </si>
 </sst>
 </file>
@@ -1145,16 +1144,35 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,25 +1214,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1599,7 +1598,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,94 +1626,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="90" t="s">
+      <c r="N1" s="109"/>
+      <c r="O1" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="109" t="s">
+      <c r="R1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="107" t="s">
+      <c r="T1" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="105" t="s">
+      <c r="U1" s="91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="97"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="106"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2019,7 +2018,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
       <c r="G8" s="85" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H8" s="38">
         <v>6</v>
@@ -2028,7 +2027,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -2078,7 +2077,7 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="86" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H9" s="81">
         <v>7</v>
@@ -2087,7 +2086,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K9" s="54" t="s">
         <v>20</v>
@@ -2144,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -2555,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -2728,7 +2727,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>19</v>
@@ -2889,8 +2888,8 @@
       </c>
       <c r="E23" s="67"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="111" t="s">
-        <v>223</v>
+      <c r="G23" s="88" t="s">
+        <v>221</v>
       </c>
       <c r="H23" s="38">
         <v>21</v>
@@ -2947,7 +2946,7 @@
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="86" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H24" s="81">
         <v>22</v>
@@ -4407,12 +4406,6 @@
     <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4427,6 +4420,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
